--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/L1cam-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/L1cam-Itga5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H2">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I2">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J2">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N2">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O2">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P2">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q2">
-        <v>368.4011609839244</v>
+        <v>231.420881800241</v>
       </c>
       <c r="R2">
-        <v>3315.61044885532</v>
+        <v>2082.787936202169</v>
       </c>
       <c r="S2">
-        <v>0.2147678609052866</v>
+        <v>0.1964130044002662</v>
       </c>
       <c r="T2">
-        <v>0.2147678609052865</v>
+        <v>0.1964130044002662</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H3">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I3">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J3">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q3">
-        <v>355.5827478194456</v>
+        <v>197.522609855613</v>
       </c>
       <c r="R3">
-        <v>3200.244730375011</v>
+        <v>1777.703488700517</v>
       </c>
       <c r="S3">
-        <v>0.207295074532457</v>
+        <v>0.1676426471843223</v>
       </c>
       <c r="T3">
-        <v>0.2072950745324569</v>
+        <v>0.1676426471843223</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H4">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I4">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J4">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N4">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O4">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P4">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q4">
-        <v>71.96127477068931</v>
+        <v>58.84571515879699</v>
       </c>
       <c r="R4">
-        <v>647.6514729362038</v>
+        <v>529.611436429173</v>
       </c>
       <c r="S4">
-        <v>0.04195146673599356</v>
+        <v>0.04994391007635321</v>
       </c>
       <c r="T4">
-        <v>0.04195146673599355</v>
+        <v>0.04994391007635321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H5">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I5">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J5">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N5">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q5">
-        <v>227.641022376438</v>
+        <v>117.291253579745</v>
       </c>
       <c r="R5">
-        <v>2048.769201387942</v>
+        <v>1055.621282217705</v>
       </c>
       <c r="S5">
-        <v>0.1327085270293528</v>
+        <v>0.09954817960358836</v>
       </c>
       <c r="T5">
-        <v>0.1327085270293527</v>
+        <v>0.09954817960358837</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.135769</v>
       </c>
       <c r="I6">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J6">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N6">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O6">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P6">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q6">
-        <v>11.73310456132889</v>
+        <v>13.26839406250344</v>
       </c>
       <c r="R6">
-        <v>105.59794105196</v>
+        <v>119.415546562531</v>
       </c>
       <c r="S6">
-        <v>0.006840080964143934</v>
+        <v>0.01126123589673506</v>
       </c>
       <c r="T6">
-        <v>0.006840080964143932</v>
+        <v>0.01126123589673506</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.135769</v>
       </c>
       <c r="I7">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J7">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q7">
         <v>11.32485453962033</v>
@@ -883,10 +883,10 @@
         <v>101.923690856583</v>
       </c>
       <c r="S7">
-        <v>0.006602082300831607</v>
+        <v>0.009611702657164909</v>
       </c>
       <c r="T7">
-        <v>0.006602082300831606</v>
+        <v>0.009611702657164909</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.135769</v>
       </c>
       <c r="I8">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J8">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N8">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O8">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P8">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q8">
-        <v>2.291874322534666</v>
+        <v>3.373888006747444</v>
       </c>
       <c r="R8">
-        <v>20.626868902812</v>
+        <v>30.364992060727</v>
       </c>
       <c r="S8">
-        <v>0.001336100419444665</v>
+        <v>0.002863507712702013</v>
       </c>
       <c r="T8">
-        <v>0.001336100419444665</v>
+        <v>0.002863507712702013</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.135769</v>
       </c>
       <c r="I9">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J9">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N9">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q9">
-        <v>7.250074649214</v>
+        <v>6.724832091532777</v>
       </c>
       <c r="R9">
-        <v>65.25067184292601</v>
+        <v>60.52348882379501</v>
       </c>
       <c r="S9">
-        <v>0.00422659640826507</v>
+        <v>0.005707542313858313</v>
       </c>
       <c r="T9">
-        <v>0.004226596408265069</v>
+        <v>0.005707542313858312</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H10">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I10">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J10">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N10">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O10">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P10">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q10">
-        <v>109.4550746031244</v>
+        <v>120.6134612754376</v>
       </c>
       <c r="R10">
-        <v>985.09567142812</v>
+        <v>1085.521151478938</v>
       </c>
       <c r="S10">
-        <v>0.06380933267136846</v>
+        <v>0.1023678248736116</v>
       </c>
       <c r="T10">
-        <v>0.06380933267136843</v>
+        <v>0.1023678248736117</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H11">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I11">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J11">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q11">
-        <v>105.6466165476057</v>
+        <v>102.9461363620927</v>
       </c>
       <c r="R11">
-        <v>950.819548928451</v>
+        <v>926.515227258834</v>
       </c>
       <c r="S11">
-        <v>0.06158910516788627</v>
+        <v>0.08737310037445829</v>
       </c>
       <c r="T11">
-        <v>0.06158910516788626</v>
+        <v>0.08737310037445829</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H12">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I12">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J12">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N12">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O12">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P12">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q12">
-        <v>21.38029825292933</v>
+        <v>30.66959788294955</v>
       </c>
       <c r="R12">
-        <v>192.422684276364</v>
+        <v>276.026380946546</v>
       </c>
       <c r="S12">
-        <v>0.0124641326021745</v>
+        <v>0.02603009640736703</v>
       </c>
       <c r="T12">
-        <v>0.0124641326021745</v>
+        <v>0.02603009640736704</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H13">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I13">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J13">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N13">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q13">
-        <v>67.63405690795801</v>
+        <v>61.13062901471222</v>
       </c>
       <c r="R13">
-        <v>608.7065121716221</v>
+        <v>550.17566113241</v>
       </c>
       <c r="S13">
-        <v>0.03942881636874756</v>
+        <v>0.05188317671359424</v>
       </c>
       <c r="T13">
-        <v>0.03942881636874754</v>
+        <v>0.05188317671359424</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H14">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I14">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J14">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N14">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O14">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P14">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q14">
-        <v>127.7845581127733</v>
+        <v>85.32894362903089</v>
       </c>
       <c r="R14">
-        <v>1150.06102301496</v>
+        <v>767.9604926612782</v>
       </c>
       <c r="S14">
-        <v>0.07449492322258223</v>
+        <v>0.07242092437857721</v>
       </c>
       <c r="T14">
-        <v>0.07449492322258223</v>
+        <v>0.07242092437857721</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H15">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I15">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J15">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>89.739807</v>
       </c>
       <c r="O15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q15">
-        <v>123.338330914262</v>
+        <v>72.83005539827266</v>
       </c>
       <c r="R15">
-        <v>1110.044978228358</v>
+        <v>655.470498584454</v>
       </c>
       <c r="S15">
-        <v>0.07190289364815629</v>
+        <v>0.06181278837127679</v>
       </c>
       <c r="T15">
-        <v>0.07190289364815629</v>
+        <v>0.06181278837127679</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H16">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I16">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J16">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N16">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O16">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P16">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q16">
-        <v>24.96066970376799</v>
+        <v>21.69744870270289</v>
       </c>
       <c r="R16">
-        <v>224.6460273339119</v>
+        <v>195.277038324326</v>
       </c>
       <c r="S16">
-        <v>0.0145513918162586</v>
+        <v>0.0184151968239285</v>
       </c>
       <c r="T16">
-        <v>0.0145513918162586</v>
+        <v>0.0184151968239285</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H17">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I17">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J17">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N17">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q17">
-        <v>78.960140557164</v>
+        <v>43.24734521374555</v>
       </c>
       <c r="R17">
-        <v>710.6412650144761</v>
+        <v>389.2261069237101</v>
       </c>
       <c r="S17">
-        <v>0.04603161520705104</v>
+        <v>0.0367051622121958</v>
       </c>
       <c r="T17">
-        <v>0.04603161520705104</v>
+        <v>0.0367051622121958</v>
       </c>
     </row>
   </sheetData>
